--- a/Documents/Application Data.xlsx
+++ b/Documents/Application Data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -68,9 +68,6 @@
     <t>MRI scanning </t>
   </si>
   <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Gastroenterology</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>Viale Lazio</t>
+  </si>
+  <si>
+    <t>Diabetes consultation</t>
   </si>
 </sst>
 </file>
@@ -317,9 +317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -329,6 +326,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,7 +611,7 @@
   <dimension ref="B7:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
@@ -645,25 +645,25 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="5" t="str">
+      <c r="E9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="9" t="str">
         <f>B8</f>
         <v xml:space="preserve">Accident and emergency </v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>C17</f>
+        <f t="shared" ref="H9:H28" si="0">C17</f>
         <v xml:space="preserve">Emergency Physician </v>
       </c>
     </row>
@@ -671,13 +671,13 @@
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>C18</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Emergency Physician </v>
       </c>
     </row>
@@ -685,8 +685,8 @@
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5" t="str">
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="str">
         <f>B9</f>
         <v>Diagnostic imaging</v>
       </c>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>C19</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
@@ -702,13 +702,13 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>C20</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
@@ -716,338 +716,338 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>C21</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>C22</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>C23</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="5" t="str">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="str">
         <f>B10</f>
         <v>Elderly services department</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>C24</f>
+        <f t="shared" si="0"/>
         <v>Gastroenterologist</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>C25</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>C26</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>C27</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Physician </v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5" t="str">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="str">
         <f>B11</f>
         <v>General surgery</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>C28</f>
+        <f t="shared" si="0"/>
         <v>Surgeon</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>C29</f>
+        <f t="shared" si="0"/>
         <v>Surgeon</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>C30</f>
+        <f t="shared" si="0"/>
         <v>Surgeon</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="5" t="str">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="9" t="str">
         <f>B12</f>
         <v>Neurology</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>C31</f>
+        <f t="shared" si="0"/>
         <v>Neurologist</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>C32</f>
+        <f t="shared" si="0"/>
         <v>Neurologist</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5" t="str">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9" t="str">
         <f>B13</f>
         <v>Nutrition and dietetics</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>C33</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Dietician </v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>C34</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Dietician </v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>C35</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Dietician </v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>C36</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Dietician </v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Application Data.xlsx
+++ b/Documents/Application Data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
   <si>
     <t xml:space="preserve">Departments </t>
   </si>
@@ -213,6 +214,24 @@
   </si>
   <si>
     <t>Diabetes consultation</t>
+  </si>
+  <si>
+    <t>emer</t>
+  </si>
+  <si>
+    <t>imag</t>
+  </si>
+  <si>
+    <t>elde</t>
+  </si>
+  <si>
+    <t>surg</t>
+  </si>
+  <si>
+    <t>neur</t>
+  </si>
+  <si>
+    <t>nutr</t>
   </si>
 </sst>
 </file>
@@ -610,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,4 +1083,311 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Application Data.xlsx
+++ b/Documents/Application Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t xml:space="preserve">Departments </t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>nutr</t>
+  </si>
+  <si>
+    <t>CENTRALE</t>
+  </si>
+  <si>
+    <t>CITY LIFE</t>
+  </si>
+  <si>
+    <t>GUASTALE</t>
   </si>
 </sst>
 </file>
@@ -629,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +730,9 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="2" t="s">
@@ -831,6 +843,9 @@
       <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="2" t="s">
@@ -940,6 +955,9 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="str">
@@ -1089,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
